--- a/src/main/resources/178-sc/provider_structure.xlsx
+++ b/src/main/resources/178-sc/provider_structure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2574" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2574" uniqueCount="230">
   <si>
     <t>类名</t>
   </si>
@@ -367,7 +367,7 @@
     <t>entryptPassword(com.wangxin.common.api.model.auth.User)</t>
   </si>
   <si>
-    <t>addUser(com.wangxin.common.api.model.auth.User)</t>
+    <t>addUser(com.wangxin.common.api.model.auth.User,com.wangxin.common.api.model.auth.Role)</t>
   </si>
   <si>
     <t>findEmp(java.lang.String,java.lang.String)</t>
@@ -689,9 +689,6 @@
   </si>
   <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>addUser(com.wangxin.common.api.model.auth.User,com.wangxin.common.api.model.auth.Role)</t>
   </si>
   <si>
     <t>2</t>
@@ -9239,7 +9236,7 @@
         <v>112</v>
       </c>
       <c r="B35" t="s">
-        <v>223</v>
+        <v>115</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
@@ -9256,7 +9253,7 @@
         <v>112</v>
       </c>
       <c r="B36" t="s">
-        <v>223</v>
+        <v>115</v>
       </c>
       <c r="C36" t="s">
         <v>40</v>
@@ -9273,7 +9270,7 @@
         <v>112</v>
       </c>
       <c r="B37" t="s">
-        <v>223</v>
+        <v>115</v>
       </c>
       <c r="C37" t="s">
         <v>112</v>
@@ -9290,7 +9287,7 @@
         <v>112</v>
       </c>
       <c r="B38" t="s">
-        <v>223</v>
+        <v>115</v>
       </c>
       <c r="C38" t="s">
         <v>105</v>
@@ -9299,7 +9296,7 @@
         <v>98</v>
       </c>
       <c r="E38" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39">
@@ -9307,7 +9304,7 @@
         <v>112</v>
       </c>
       <c r="B39" t="s">
-        <v>223</v>
+        <v>115</v>
       </c>
       <c r="C39" t="s">
         <v>40</v>
@@ -9324,7 +9321,7 @@
         <v>112</v>
       </c>
       <c r="B40" t="s">
-        <v>223</v>
+        <v>115</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -9691,10 +9688,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" t="s">
         <v>225</v>
-      </c>
-      <c r="B1" t="s">
-        <v>226</v>
       </c>
       <c r="C1" t="s">
         <v>218</v>
@@ -9727,10 +9724,10 @@
         <v>217</v>
       </c>
       <c r="C1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" t="s">
         <v>227</v>
-      </c>
-      <c r="D1" t="s">
-        <v>228</v>
       </c>
       <c r="E1" t="s">
         <v>220</v>
@@ -9751,16 +9748,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" t="s">
         <v>225</v>
       </c>
-      <c r="B1" t="s">
-        <v>226</v>
-      </c>
       <c r="C1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E1" t="s">
         <v>220</v>
@@ -9790,7 +9787,7 @@
         <v>218</v>
       </c>
       <c r="D1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E1" t="s">
         <v>220</v>
@@ -9810,7 +9807,7 @@
         <v>169</v>
       </c>
       <c r="E2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -9828,16 +9825,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" t="s">
         <v>225</v>
-      </c>
-      <c r="B1" t="s">
-        <v>226</v>
       </c>
       <c r="C1" t="s">
         <v>218</v>
       </c>
       <c r="D1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E1" t="s">
         <v>220</v>
